--- a/public/stock_card_import.xlsx
+++ b/public/stock_card_import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Eren/erp-ims/erp-dev-frontend/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C132E590-C9F2-FE47-A59F-EF2540F81BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DB03059-676B-084C-8893-D39E830685D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>productCode</t>
   </si>
@@ -110,46 +110,58 @@
     <t>BasitUrun</t>
   </si>
   <si>
-    <t>REMA/iP-15ProMax/Siyah</t>
-  </si>
-  <si>
-    <t>Apple Iphone 15 Pro Max Magsafe Wireless Şarj Özellikli Silikon 2mm Kamera Çıkıntılı Rema Kılıf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rema Iphone 15 Pro Max </t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>Brand 1</t>
-  </si>
-  <si>
     <t>Rema Kılıf</t>
   </si>
   <si>
-    <t>Renk=Siyah,Cihaz Modeli=iPhone 15 Pro Max</t>
-  </si>
-  <si>
-    <t>Ege</t>
-  </si>
-  <si>
-    <t>Tip 1 Bayiler=1,Tip 2 Bayiler=1,5,Tip 3 Bayiler=3,Perakende=100,E-Ticaret=200</t>
-  </si>
-  <si>
     <t>warehouseName</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
-    <t>Ana Depo</t>
-  </si>
-  <si>
-    <t>8683603022727,1</t>
+    <t>REMA/iP-11/AçıkMavi</t>
+  </si>
+  <si>
+    <t>Apple Iphone 11 Magsafe Wireless Şarj Özellikli Silikon 2mm Kamera Çıkıntılı Rema Kılıf</t>
+  </si>
+  <si>
+    <t>Renk=Açık Mavi,Cihaz Modeli=iPhone 11</t>
+  </si>
+  <si>
+    <t>VIP</t>
+  </si>
+  <si>
+    <t>ETC</t>
+  </si>
+  <si>
+    <t>E-Ticaret</t>
+  </si>
+  <si>
+    <t>VipCase</t>
+  </si>
+  <si>
+    <t>REMA iPhone 11 Açık Mavi</t>
+  </si>
+  <si>
+    <t>REMA/iP-11/AçıkMavi,8683606399265</t>
+  </si>
+  <si>
+    <t>EGE</t>
+  </si>
+  <si>
+    <t>Tip 1 Bayiler=1,Tip 2 Bayiler=1.4,Tip 3 Bayiler=1.8,Maliyet=0.8,Perakende=150</t>
+  </si>
+  <si>
+    <t>maliyet</t>
+  </si>
+  <si>
+    <t>maliyetKur</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>vatRate</t>
   </si>
 </sst>
 </file>
@@ -214,11 +226,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,18 +536,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="74.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="75.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.1640625" bestFit="1" customWidth="1"/>
@@ -545,19 +558,21 @@
     <col min="13" max="13" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="40.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="61.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="41.6640625" customWidth="1"/>
+    <col min="25" max="25" width="61.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="41" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,57 +619,66 @@
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
         <v>35</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -668,35 +692,47 @@
       <c r="O2">
         <v>50</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2">
+        <v>50</v>
+      </c>
+      <c r="T2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2">
+        <v>20</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
         <v>37</v>
-      </c>
-      <c r="Q2">
-        <v>100</v>
-      </c>
-      <c r="R2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V2" t="s">
-        <v>34</v>
-      </c>
-      <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB2">
+    <sortCondition ref="A2"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/stock_card_import.xlsx
+++ b/public/stock_card_import.xlsx
@@ -1,39 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11207"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Eren/erp-ims/erp-dev-frontend/public/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DB03059-676B-084C-8893-D39E830685D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>productCode</t>
   </si>
@@ -80,6 +61,18 @@
     <t>riskQuantities</t>
   </si>
   <si>
+    <t>maliyet</t>
+  </si>
+  <si>
+    <t>maliyetKur</t>
+  </si>
+  <si>
+    <t>warehouseName</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
     <t>brandName</t>
   </si>
   <si>
@@ -92,82 +85,68 @@
     <t>attributes</t>
   </si>
   <si>
+    <t>vatRate</t>
+  </si>
+  <si>
     <t>prices</t>
   </si>
   <si>
     <t>barcodes</t>
   </si>
   <si>
-    <t>manufacturerName</t>
-  </si>
-  <si>
     <t>marketNames</t>
   </si>
   <si>
+    <t>REMA/iP-11/AçıkMavi</t>
+  </si>
+  <si>
+    <t>REMA iPhone 11 Açık Mavi</t>
+  </si>
+  <si>
     <t>Adet</t>
   </si>
   <si>
+    <t>Apple Iphone 11 Magsafe Wireless Şarj Özellikli Silikon 2mm Kamera Çıkıntılı Rema Kılıf</t>
+  </si>
+  <si>
+    <t>VIP</t>
+  </si>
+  <si>
+    <t>ETC</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>E-Ticaret</t>
+  </si>
+  <si>
+    <t>VipCase</t>
+  </si>
+  <si>
     <t>BasitUrun</t>
   </si>
   <si>
     <t>Rema Kılıf</t>
   </si>
   <si>
-    <t>warehouseName</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>REMA/iP-11/AçıkMavi</t>
-  </si>
-  <si>
-    <t>Apple Iphone 11 Magsafe Wireless Şarj Özellikli Silikon 2mm Kamera Çıkıntılı Rema Kılıf</t>
-  </si>
-  <si>
     <t>Renk=Açık Mavi,Cihaz Modeli=iPhone 11</t>
   </si>
   <si>
-    <t>VIP</t>
-  </si>
-  <si>
-    <t>ETC</t>
-  </si>
-  <si>
-    <t>E-Ticaret</t>
-  </si>
-  <si>
-    <t>VipCase</t>
-  </si>
-  <si>
-    <t>REMA iPhone 11 Açık Mavi</t>
+    <t>Tip 1 Bayiler=1,Tip 2 Bayiler=1.4,Tip 3 Bayiler=1.8,Maliyet=0.8,Perakende=150</t>
   </si>
   <si>
     <t>REMA/iP-11/AçıkMavi,8683606399265</t>
   </si>
   <si>
     <t>EGE</t>
-  </si>
-  <si>
-    <t>Tip 1 Bayiler=1,Tip 2 Bayiler=1.4,Tip 3 Bayiler=1.8,Maliyet=0.8,Perakende=150</t>
-  </si>
-  <si>
-    <t>maliyet</t>
-  </si>
-  <si>
-    <t>maliyetKur</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>vatRate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -179,16 +158,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -199,7 +177,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -209,55 +187,82 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="10">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -290,79 +295,79 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -383,54 +388,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -440,7 +444,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -449,7 +453,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -458,7 +462,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -466,10 +470,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -498,7 +502,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -511,13 +515,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -535,44 +538,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="75.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12" customWidth="1"/>
-    <col min="18" max="18" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="41.6640625" customWidth="1"/>
-    <col min="25" max="25" width="61.83203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="41" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="7" width="26.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="30.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="4.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="75.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="75.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="4.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="8" width="4.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="8" width="9.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="7" width="6.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="7" width="3.1478571428571427" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="8" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="8" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="9" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="7" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="7" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="8" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="7" width="10.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="7" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="7" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="7" width="41.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="8" width="41.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="7" width="61.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="7" width="41.005" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="7" width="12.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,10 +605,10 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -612,128 +617,125 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+      <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="5">
+        <v>20</v>
+      </c>
+      <c r="O2" s="5">
+        <v>50</v>
+      </c>
+      <c r="P2" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="5">
+        <v>50</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" s="5">
+        <v>20</v>
+      </c>
+      <c r="Y2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Z2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>20</v>
-      </c>
-      <c r="O2">
-        <v>50</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="AA2" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="R2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2">
-        <v>50</v>
-      </c>
-      <c r="T2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V2" t="s">
-        <v>25</v>
-      </c>
-      <c r="W2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X2">
-        <v>20</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB2">
-    <sortCondition ref="A2"/>
-  </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>